--- a/meta/program/BlancoValueObjectFieldStructure.xlsx
+++ b/meta/program/BlancoValueObjectFieldStructure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObject/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{643CEA4F-3DCF-2B4C-8C5E-D8BD68ABC2F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AB6DD5-470B-2F45-8A0F-189552833864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="1860" windowWidth="28300" windowHeight="17440" tabRatio="640"/>
+    <workbookView xWindow="5040" yWindow="1860" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -328,13 +330,80 @@
   </si>
   <si>
     <t>annotationList</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>typeJava</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Java優先型名をパッケージ名のフル修飾付で指定します。</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ユウセン </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>required</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>java.lang.Boolean</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>必須変数かどうか。必須の場合は @NotNull アノテーションが付与されます。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒッス </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ヘンスウ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ヒッス </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">バアイハ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">フヨ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>変更不可変数かどうか</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ヘンコウフカ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ヘンスウ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>abstract</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>abstract変数かどうか</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ヘンスウ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>fixedValue</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -725,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -847,25 +916,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1274,14 +1347,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1475,24 +1548,24 @@
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="53"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="51"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="47"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="53"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="51"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
@@ -1534,30 +1607,30 @@
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="52" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
       <c r="F26" s="9"/>
       <c r="G26"/>
     </row>
@@ -1598,7 +1671,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="40">
-        <f t="shared" ref="A29:A40" si="0">A28+1</f>
+        <f t="shared" ref="A29:A44" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="41" t="s">
@@ -1670,76 +1743,80 @@
       <c r="F32" s="43"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" s="47" customFormat="1">
       <c r="A33" s="40">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D33" s="42"/>
       <c r="E33" s="42" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F33" s="43"/>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" ht="45">
+    <row r="34" spans="1:7" s="47" customFormat="1">
       <c r="A34" s="40">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B34" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="52"/>
+      <c r="B34" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="43"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" s="47" customFormat="1">
       <c r="A35" s="40">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="42"/>
+        <v>68</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>69</v>
+      </c>
       <c r="E35" s="42" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F35" s="43"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" s="47" customFormat="1">
       <c r="A36" s="40">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="42"/>
+        <v>68</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>69</v>
+      </c>
       <c r="E36" s="42" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F36" s="43"/>
       <c r="G36"/>
@@ -1750,34 +1827,36 @@
         <v>11</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C37" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="42"/>
       <c r="E37" s="42" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F37" s="43"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" ht="45">
       <c r="A38" s="40">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B38" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="43"/>
+      <c r="B38" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="50"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7">
@@ -1786,14 +1865,14 @@
         <v>13</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C39" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="42"/>
       <c r="E39" s="42" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F39" s="43"/>
       <c r="G39"/>
@@ -1804,39 +1883,111 @@
         <v>14</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C40" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D40" s="42"/>
       <c r="E40" s="42" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F40" s="43"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="22"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="25"/>
+      <c r="A41" s="40">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="43"/>
       <c r="G41"/>
     </row>
     <row r="42" spans="1:7">
+      <c r="A42" s="40">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="43"/>
       <c r="G42"/>
     </row>
     <row r="43" spans="1:7">
+      <c r="A43" s="40">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="43"/>
       <c r="G43"/>
     </row>
     <row r="44" spans="1:7">
+      <c r="A44" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="43"/>
       <c r="G44"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="25"/>
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="G48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="A25:A26"/>
@@ -1850,23 +2001,23 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D57">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D61" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>adjustDefaultValue</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>adjustFiledName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>createToString</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>accessScope2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>isAbstract</formula1>
     </dataValidation>
   </dataValidations>
@@ -1879,7 +2030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
